--- a/Data/Plots_CAL.xlsx
+++ b/Data/Plots_CAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parsh\OneDrive\Documents\sem 8\open lab\Integrated_Lab_II\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Files\My Drive\Study_Stuff\Semester-8\Integrated_Laborotary_II\Experiment_1_LockInAmplifier_using_Expeyes\Codes_for_Expeyes\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9F266C-DF09-4516-B105-2C7D4FFAD0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A341DE26-0460-4E2F-BF6A-686D386DCA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9B8DCAF-7B35-4682-B81E-4C849022E092}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9B8DCAF-7B35-4682-B81E-4C849022E092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1993,7 +1993,7 @@
   <dimension ref="B1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
